--- a/paper/supplementary_tables.xlsx
+++ b/paper/supplementary_tables.xlsx
@@ -10,8 +10,6 @@
     <sheet name="Table S1" sheetId="1" r:id="rId1"/>
     <sheet name="Table S2" sheetId="2" r:id="rId2"/>
     <sheet name="Table S3" sheetId="3" r:id="rId3"/>
-    <sheet name="Table S4" sheetId="4" r:id="rId4"/>
-    <sheet name="Table S5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -3291,7 +3289,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3305,27 +3303,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mild, n = 19</t>
+          <t>Mild</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Moderate, n = 23</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Severe, n = 23</t>
+          <t>Severe</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Critical, n = 26</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Significance</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Effect size</t>
         </is>
       </c>
     </row>
@@ -3337,35 +3345,49 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mean(SD) = 49 (12)
-median(IQR) = 50 (42 - 56)
-range = 20 - 72</t>
+          <t>Mean = 49 (SD: 12)
+Median = 50 [IQR: 42 - 56]
+Range: 20 - 72
+Complete: n = 19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mean(SD) = 61 (13)
-median(IQR) = 61 (53 - 72)
-range = 38 - 81</t>
+          <t>Mean = 61 (SD: 13)
+Median = 61 [IQR: 53 - 72]
+Range: 38 - 81
+Complete: n = 23</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>mean(SD) = 65 (14)
-median(IQR) = 64 (56 - 77)
-range = 37 - 89</t>
+          <t>Mean = 65 (SD: 14)
+Median = 64 [IQR: 56 - 77]
+Range: 37 - 89
+Complete: n = 23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>mean(SD) = 59 (9.4)
-median(IQR) = 56 (53 - 66)
-range = 45 - 80</t>
+          <t>Mean = 59 (SD: 9.4)
+Median = 56 [IQR: 53 - 66]
+Range: 45 - 80
+Complete: n = 26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>p = .0019</t>
+          <t>one-way ANOVA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>η² = 0.19</t>
         </is>
       </c>
     </row>
@@ -3378,106 +3400,152 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>up to 60: 95% (18)
-&gt;60: 5.3% (1)</t>
+&gt;60: 5.3% (1)
+Complete: n = 19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>up to 60: 48% (11)
-&gt;60: 52% (12)</t>
+&gt;60: 52% (12)
+Complete: n = 23</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>up to 60: 39% (9)
-&gt;60: 61% (14)</t>
+&gt;60: 61% (14)
+Complete: n = 23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>up to 60: 62% (16)
-&gt;60: 38% (10)</t>
+&gt;60: 38% (10)
+Complete: n = 26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>p = .0018</t>
+          <t>Chi-squared test</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>p = 0.0018</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>V = 0.41</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>male: 32% (6)
-female: 68% (13)</t>
+          <t>normal: 63% (12)
+overweight: 26% (5)
+obesity: 11% (2)
+Complete: n = 19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>male: 48% (11)
-female: 52% (12)</t>
+          <t>normal: 30% (7)
+overweight: 57% (13)
+obesity: 13% (3)
+Complete: n = 23</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>male: 87% (20)
-female: 13% (3)</t>
+          <t>normal: 13% (3)
+overweight: 57% (13)
+obesity: 30% (7)
+Complete: n = 23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>male: 73% (19)
-female: 27% (7)</t>
+          <t>normal: 46% (12)
+overweight: 31% (8)
+obesity: 23% (6)
+Complete: n = 26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>p &lt; .001</t>
+          <t>Chi-squared test</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>p = 0.022</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>V = 0.28</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>Packs/year</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>normal: 63% (12)
-overweight: 26% (5)
-obesity: 11% (2)</t>
+          <t>Mean = 0.79 (SD: 2.1)
+Median = 0 [IQR: 0 - 0]
+Range: 0 - 7
+Complete: n = 19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>normal: 30% (7)
-overweight: 57% (13)
-obesity: 13% (3)</t>
+          <t>Mean = 8.1 (SD: 18)
+Median = 0 [IQR: 0 - 10]
+Range: 0 - 80
+Complete: n = 23</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>normal: 13% (3)
-overweight: 57% (13)
-obesity: 30% (7)</t>
+          <t>Mean = 10 (SD: 15)
+Median = 0 [IQR: 0 - 18]
+Range: 0 - 50
+Complete: n = 23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>normal: 46% (12)
-overweight: 31% (8)
-obesity: 23% (6)</t>
+          <t>Mean = 7.3 (SD: 14)
+Median = 0 [IQR: 0 - 9]
+Range: 0 - 60
+Complete: n = 26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>p = .022</t>
+          <t>Kruskal-Wallis test</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ns (p = 0.11)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>η² = 0.036</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3560,8 @@
           <t>0: 84% (16)
 1–10: 16% (3)
 11-20: 0% (0)
-&gt;21: 0% (0)</t>
+&gt;21: 0% (0)
+Complete: n = 19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3500,7 +3569,8 @@
           <t>0: 65% (15)
 1–10: 8.7% (2)
 11-20: 17% (4)
-&gt;21: 8.7% (2)</t>
+&gt;21: 8.7% (2)
+Complete: n = 23</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3508,7 +3578,8 @@
           <t>0: 52% (12)
 1–10: 17% (4)
 11-20: 13% (3)
-&gt;21: 17% (4)</t>
+&gt;21: 17% (4)
+Complete: n = 23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3516,12 +3587,23 @@
           <t>0: 65% (17)
 1–10: 12% (3)
 11-20: 7.7% (2)
-&gt;21: 15% (4)</t>
+&gt;21: 15% (4)
+Complete: n = 26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ns (p = .39)</t>
+          <t>Chi-squared test</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ns (p = 0.39)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>V = 0.19</t>
         </is>
       </c>
     </row>
@@ -3534,30 +3616,44 @@
       <c r="B7" t="inlineStr">
         <is>
           <t>never: 84% (16)
-ex: 16% (3)</t>
+ex: 16% (3)
+Complete: n = 19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>never: 65% (15)
-ex: 35% (8)</t>
+ex: 35% (8)
+Complete: n = 23</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>never: 52% (12)
-ex: 48% (11)</t>
+ex: 48% (11)
+Complete: n = 23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>never: 65% (17)
-ex: 35% (9)</t>
+ex: 35% (9)
+Complete: n = 26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ns (p = .19)</t>
+          <t>Chi-squared test</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ns (p = 0.19)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>V = 0.23</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3664,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3582,2979 +3678,179 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Variable</t>
+          <t>2-month FUP</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2-month FUP</t>
+          <t>3-month FUP</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3-month FUP</t>
+          <t>6-month FUP</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>6-month FUP</t>
+          <t>1-year FUP</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>1-year FUP</t>
+          <t>Significance</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Significance</t>
+          <t>Effect size</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>CTSS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Any abnormalities</t>
+          <t>Mean = 7.4 (SD: 6.3)
+Median = 6.5 [IQR: 1 - 13]
+Range: 0 - 20
+Complete: n = 76</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>29% (4)
-complete: n = 14</t>
+          <t>Mean = 5 (SD: 5.6)
+Median = 3 [IQR: 0 - 9]
+Range: 0 - 20
+Complete: n = 86</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18% (3)
-complete: n = 17</t>
+          <t>Mean = 3.9 (SD: 4.4)
+Median = 2 [IQR: 0 - 7]
+Range: 0 - 15
+Complete: n = 70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29% (2)
-complete: n = 7</t>
+          <t>Mean = 2.9 (SD: 4.2)
+Median = 1 [IQR: 0 - 5]
+Range: 0 - 15
+Complete: n = 91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11% (2)
-complete: n = 19</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ns (p = .55)</t>
+          <t>η² = 0.059</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>Opacity</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Moderate-severe abnormalities</t>
+          <t>Mean = 3.3 (SD: 7.2)
+Median = 0.27 [IQR: 0.002 - 3.3]
+Range: 0 - 37
+Complete: n = 77</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14% (2)
-complete: n = 14</t>
+          <t>Mean = 2.4 (SD: 5.9)
+Median = 0.11 [IQR: 0 - 1.2]
+Range: 0 - 38
+Complete: n = 86</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.9% (1)
-complete: n = 17</t>
+          <t>Mean = 0.64 (SD: 1.7)
+Median = 0.06 [IQR: 0 - 0.5]
+Range: 0 - 12
+Complete: n = 71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0% (0)
-complete: n = 7</t>
+          <t>Mean = 0.25 (SD: 0.73)
+Median = 0 [IQR: 0 - 0.12]
+Range: 0 - 6.2
+Complete: n = 91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0% (0)
-complete: n = 19</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ns (p = .29)</t>
+          <t>η² = 0.065</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>High opacity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Severe abnormalities</t>
+          <t>Mean = 0.24 (SD: 0.53)
+Median = 0.009 [IQR: 0 - 0.16]
+Range: 0 - 2.5
+Complete: n = 77</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0% (0)
-complete: n = 14</t>
+          <t>Mean = 0.12 (SD: 0.33)
+Median = 0.0035 [IQR: 0 - 0.06]
+Range: 0 - 2.4
+Complete: n = 84</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0% (0)
-complete: n = 17</t>
+          <t>Mean = 0.015 (SD: 0.058)
+Median = 0 [IQR: 0 - 0.01]
+Range: 0 - 0.46
+Complete: n = 71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0% (0)
-complete: n = 7</t>
+          <t>Mean = 0.0084 (SD: 0.021)
+Median = 0 [IQR: 0 - 0.01]
+Range: 0 - 0.11
+Complete: n = 91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0% (0)
-complete: n = 19</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>mild</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Any opacity</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>43% (6)
-complete: n = 14</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>24% (4)
-complete: n = 17</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>43% (3)
-complete: n = 7</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>11% (2)
-complete: n = 19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ns (p = .14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>mild</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Any high opacity</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>29% (4)
-complete: n = 14</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20% (3)
-complete: n = 15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>29% (2)
-complete: n = 7</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>11% (2)
-complete: n = 19</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ns (p = .57)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>mild</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>GGO</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>21% (3)
-complete: n = 14</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12% (2)
-complete: n = 17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>14% (1)
-complete: n = 7</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.3% (1)
-complete: n = 19</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ns (p = .58)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>mild</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Reticulation</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>7.1% (1)
-complete: n = 14</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.9% (1)
-complete: n = 17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>29% (2)
-complete: n = 7</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>11% (2)
-complete: n = 19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ns (p = .39)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>mild</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Consolidation</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>7.1% (1)
-complete: n = 14</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.9% (1)
-complete: n = 17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 7</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 19</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ns (p = .62)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>mild</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Bronchial dilatation</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 14</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 17</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 7</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 19</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>mild</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Crazy paving</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 14</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 15</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 7</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 19</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>mild</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ARDS pattern</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 14</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 15</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 7</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 19</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>mild</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>OP</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>7.1% (1)
-complete: n = 14</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.7% (1)
-complete: n = 15</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>14% (1)
-complete: n = 7</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 19</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>ns (p = .52)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>mild</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Parenchymal bands</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 15</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 7</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 19</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>mild</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Microcystic changes</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 19</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>mild</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Parenchymal destruction</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 19</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Any abnormalities</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>73% (16)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>52% (12)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>55% (11)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>43% (10)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>ns (p = .25)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Moderate-severe abnormalities</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>45% (10)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>26% (6)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>20% (4)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>13% (3)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>ns (p = .083)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Severe abnormalities</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>23% (5)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>p = .0012</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Any opacity</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>77% (17)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>70% (16)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>62% (13)
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>39% (9)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>p = .05</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Any high opacity</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>68% (15)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>48% (11)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>24% (5)
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>8.7% (2)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>p &lt; .001</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>GGO</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>68% (15)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>48% (11)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>50% (10)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>39% (9)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>ns (p = .26)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Reticulation</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>59% (13)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>43% (10)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>40% (8)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>35% (8)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>ns (p = .4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Consolidation</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>14% (3)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8.7% (2)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>ns (p = .13)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Bronchial dilatation</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>4.5% (1)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>4.3% (1)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>5% (1)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.3% (1)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>ns (p = 1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Crazy paving</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 23</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ARDS pattern</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 23</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>OP</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>9.1% (2)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>8.7% (2)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>5% (1)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>ns (p = .52)</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Parenchymal bands</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>13% (3)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>10% (2)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>ns (p = .22)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Microcystic changes</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 23</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Parenchymal destruction</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 23</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Any abnormalities</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>96% (22)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>80% (16)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>67% (14)
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>65% (15)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>ns (p = .053)</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Moderate-severe abnormalities</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>70% (16)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>30% (6)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>19% (4)
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>13% (3)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>p &lt; .001</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Severe abnormalities</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>35% (8)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>5% (1)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>4.8% (1)
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.3% (1)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>p = .0031</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Any opacity</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>87% (20)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>70% (14)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>62% (13)
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>57% (13)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>ns (p = .13)</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Any high opacity</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>74% (17)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>55% (11)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>19% (4)
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>22% (5)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>p &lt; .001</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>GGO</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>96% (22)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>75% (15)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>52% (11)
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>43% (10)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>p &lt; .001</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Reticulation</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>65% (15)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>65% (13)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>57% (12)
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>52% (12)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>ns (p = .77)</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Consolidation</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>8.7% (2)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>10% (2)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>ns (p = .23)</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Bronchial dilatation</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>4.3% (1)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>5% (1)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>4.8% (1)
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.3% (1)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>ns (p = 1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Crazy paving</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>4.3% (1)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>ns (p = .42)</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ARDS pattern</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 23</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>OP</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>8.7% (2)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>5% (1)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>ns (p = .31)</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Parenchymal bands</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>35% (7)
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>19% (4)
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>p = .0096</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Microcystic changes</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 23</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Parenchymal destruction</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>8.7% (2)
-complete: n = 23</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Any abnormalities</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>94% (16)
-complete: n = 17</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>88% (23)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>91% (20)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>85% (22)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>ns (p = .79)</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Moderate-severe abnormalities</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>76% (13)
-complete: n = 17</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>69% (18)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>50% (11)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>46% (12)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>ns (p = .12)</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Severe abnormalities</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>71% (12)
-complete: n = 17</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>50% (13)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>23% (5)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>27% (7)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>p = .0067</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Any opacity</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>89% (16)
-complete: n = 18</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>88% (23)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>82% (18)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>69% (18)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>ns (p = .25)</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Any high opacity</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>89% (16)
-complete: n = 18</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>85% (22)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>50% (11)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>65% (17)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>p = .016</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>GGO</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>94% (16)
-complete: n = 17</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>85% (22)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>77% (17)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>77% (20)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>ns (p = .45)</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Reticulation</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>88% (15)
-complete: n = 17</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>81% (21)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>77% (17)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>65% (17)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>ns (p = .33)</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Consolidation</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>24% (4)
-complete: n = 17</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>3.8% (1)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>4.5% (1)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.8% (1)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>ns (p = .06)</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Bronchial dilatation</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>35% (6)
-complete: n = 17</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>15% (4)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>18% (4)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>23% (6)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>ns (p = .45)</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Crazy paving</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 17</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 26</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ARDS pattern</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 17</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 26</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>OP</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>5.9% (1)
-complete: n = 17</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>7.7% (2)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0% (0)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>ns (p = .31)</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Parenchymal bands</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>65% (17)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>45% (10)
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>19% (5)
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>p = .0034</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Microcystic changes</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>7.7% (2)
-complete: n = 26</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Parenchymal destruction</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>27% (7)
-complete: n = 26</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Severity</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2-month FUP</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>3-month FUP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>6-month FUP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>1-year FUP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Significance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>cohort</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>median(IQR) = 6.5 (1 - 13)
-range = 0 - 20
-complete: n = 76</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>median(IQR) = 3 (0 - 9)
-range = 0 - 20
-complete: n = 86</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>median(IQR) = 2 (0 - 7)
-range = 0 - 15
-complete: n = 70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>median(IQR) = 1 (0 - 5)
-range = 0 - 15
-complete: n = 91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>p &lt; .001</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>mild</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 1.5)
-range = 0 - 9
-complete: n = 14</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0)
-range = 0 - 9
-complete: n = 17</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 1.5)
-range = 0 - 3
-complete: n = 7</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0)
-range = 0 - 3
-complete: n = 19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ns (p = .5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>median(IQR) = 4.5 (0.25 - 9.8)
-range = 0 - 20
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>median(IQR) = 2 (0 - 5.5)
-range = 0 - 10
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>median(IQR) = 1 (0 - 5)
-range = 0 - 8
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 2)
-range = 0 - 8
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>p = .021</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>median(IQR) = 9 (5 - 13)
-range = 0 - 19
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>median(IQR) = 3.5 (1 - 7)
-range = 0 - 13
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>median(IQR) = 1 (0 - 5)
-range = 0 - 13
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>median(IQR) = 1 (0 - 4)
-range = 0 - 13
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>p &lt; .001</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>median(IQR) = 15 (10 - 15)
-range = 0 - 20
-complete: n = 17</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>median(IQR) = 12 (5 - 15)
-range = 0 - 20
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>median(IQR) = 6.5 (2.2 - 10)
-range = 0 - 15
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>median(IQR) = 5 (2 - 11)
-range = 0 - 15
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>p = .0033</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Severity</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2-month FUP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>3-month FUP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>6-month FUP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>1-year FUP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Significance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Opacity, % lung volume</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>cohort</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.27 (0.002 - 3.3)
-range = 0 - 37
-complete: n = 77</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.11 (0 - 1.2)
-range = 0 - 38
-complete: n = 86</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.06 (0 - 0.5)
-range = 0 - 12
-complete: n = 71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0.12)
-range = 0 - 6.2
-complete: n = 91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>p &lt; .001</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Opacity, % lung volume</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>mild</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0.028)
-range = 0 - 0.33
-complete: n = 14</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0)
-range = 0 - 0.74
-complete: n = 17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0.06)
-range = 0 - 0.17
-complete: n = 7</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0)
-range = 0 - 0.16
-complete: n = 19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ns (p = .2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Opacity, % lung volume</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.11 (0.017 - 1.1)
-range = 0 - 5.2
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.044 (0 - 0.56)
-range = 0 - 4.8
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.04 (0 - 0.43)
-range = 0 - 3.3
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0.03)
-range = 0 - 0.91
-complete: n = 23</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>p = .02</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Opacity, % lung volume</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.37 (0.046 - 3.2)
-range = 0 - 12
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.068 (0 - 0.5)
-range = 0 - 5.7
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.01 (0 - 0.23)
-range = 0 - 12
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.02 (0 - 0.065)
-range = 0 - 2
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>p = .008</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Opacity, % lung volume</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>median(IQR) = 7.6 (0.34 - 11)
-range = 0 - 37
-complete: n = 18</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>median(IQR) = 2.9 (0.28 - 11)
-range = 0 - 38
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.3 (0.028 - 0.9)
-range = 0 - 3.7
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.28 (0 - 0.67)
-range = 0 - 6.2
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>p &lt; .001</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>High opacity, % lung volume</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>cohort</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.009 (0 - 0.16)
-range = 0 - 2.5
-complete: n = 77</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.0035 (0 - 0.06)
-range = 0 - 2.4
-complete: n = 84</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0.01)
-range = 0 - 0.46
-complete: n = 71</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0.01)
-range = 0 - 0.11
-complete: n = 91</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>p &lt; .001</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>High opacity, % lung volume</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>mild</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0.00075)
-range = 0 - 0.16
-complete: n = 14</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0)
-range = 0 - 0.12
-complete: n = 15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0.01)
-range = 0 - 0.03
-complete: n = 7</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0)
-range = 0 - 0.05
-complete: n = 19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ns (p = .59)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>High opacity, % lung volume</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.0035 (0 - 0.014)
-range = 0 - 2.5
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0.027)
-range = 0 - 2.4
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0)
-range = 0 - 0.09
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0)
-range = 0 - 0.04
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>p &lt; .001</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>High opacity, % lung volume</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.02 (5e-04 - 0.063)
-range = 0 - 0.69
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.0015 (0 - 0.01)
-range = 0 - 0.4
-complete: n = 20</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0)
-range = 0 - 0.46
-complete: n = 21</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0 (0 - 0)
-range = 0 - 0.11
-complete: n = 23</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>p &lt; .001</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>High opacity, % lung volume</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.39 (0.065 - 1.1)
-range = 0 - 2.1
-complete: n = 18</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.076 (0.01 - 0.37)
-range = 0 - 1
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.005 (0 - 0.017)
-range = 0 - 0.16
-complete: n = 22</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>median(IQR) = 0.01 (0 - 0.02)
-range = 0 - 0.11
-complete: n = 26</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>p &lt; .001</t>
+          <t>η² = 0.1</t>
         </is>
       </c>
     </row>
